--- a/pred_ohlcv/54_21/2019-10-17 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 ZEC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>617.77434926</v>
       </c>
       <c r="H3">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>619.06434926</v>
       </c>
       <c r="H4">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>619.06434926</v>
       </c>
       <c r="H5">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>614.1043492599999</v>
       </c>
       <c r="H6">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>538.0040492599999</v>
       </c>
       <c r="H7">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>514.2480492599999</v>
       </c>
       <c r="H8">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>511.9245492599999</v>
       </c>
       <c r="H9">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,7 +678,7 @@
         <v>514.1696492599999</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>501.66154926</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>470.40784926</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>721.68083089</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>691.0675308900001</v>
       </c>
       <c r="H58">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>665.7413308900002</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>625.2479308900002</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>625.2479308900002</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>737.8582308900003</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>740.8582308900003</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>739.8582308900003</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>734.9077308900003</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>734.9077308900003</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>734.9077308900003</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>691.8795308900003</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>690.2195308900003</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>784.5809308900003</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>784.5809308900003</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>785.8009308900004</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>803.0684308900004</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>803.4813308900004</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>804.3831308900005</v>
       </c>
       <c r="H117">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>804.3831308900005</v>
       </c>
       <c r="H118">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>795.2903308900005</v>
       </c>
       <c r="H119">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>795.2903308900005</v>
       </c>
       <c r="H120">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>819.5084308900006</v>
       </c>
       <c r="H121">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>891.4883308900006</v>
       </c>
       <c r="H122">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>904.4883308900006</v>
       </c>
       <c r="H123">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>923.4883308900006</v>
       </c>
       <c r="H124">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>884.2559801600006</v>
       </c>
       <c r="H126">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>930.4346801600007</v>
       </c>
       <c r="H127">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>918.0195801600006</v>
       </c>
       <c r="H128">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>900.0844801600006</v>
       </c>
       <c r="H129">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>901.7744801600006</v>
       </c>
       <c r="H130">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>913.6229801600006</v>
       </c>
       <c r="H131">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>901.1250801600006</v>
       </c>
       <c r="H132">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>907.0650801600007</v>
       </c>
       <c r="H133">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>906.3334801600007</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>906.5634801600007</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>847.6029801600007</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>835.9004801600007</v>
       </c>
       <c r="H138">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-17 ZEC ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-17 ZEC ohlcv.xlsx
@@ -470,7 +470,7 @@
         <v>617.77434926</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:8">
@@ -496,7 +496,7 @@
         <v>619.06434926</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:8">
@@ -522,7 +522,7 @@
         <v>619.06434926</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -548,7 +548,7 @@
         <v>614.1043492599999</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>538.0040492599999</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>514.2480492599999</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -678,7 +678,7 @@
         <v>514.1696492599999</v>
       </c>
       <c r="H11">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -756,7 +756,7 @@
         <v>501.66154926</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>468.33784926</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>472.40784926</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>510.10574926</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>514.10574926</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>665.10293089</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>713.21843089</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>721.68083089</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>682.7052308900001</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>696.8727308900001</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>651.0738308900001</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -1900,7 +1900,7 @@
         <v>691.0675308900001</v>
       </c>
       <c r="H58">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="59" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>665.7413308900002</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>625.2479308900002</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>625.2479308900002</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>737.8582308900003</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>740.8582308900003</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>739.8582308900003</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>734.9077308900003</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>734.9077308900003</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>734.9077308900003</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>691.8795308900003</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>690.2195308900003</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>782.5809308900003</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>780.5809308900003</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>784.5809308900003</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>820.7982308900005</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3330,7 +3330,7 @@
         <v>808.3931308900005</v>
       </c>
       <c r="H113">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:8">
@@ -3356,7 +3356,7 @@
         <v>808.3931308900005</v>
       </c>
       <c r="H114">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:8">
@@ -3382,7 +3382,7 @@
         <v>808.3931308900005</v>
       </c>
       <c r="H115">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:8">
@@ -3408,7 +3408,7 @@
         <v>804.3831308900005</v>
       </c>
       <c r="H116">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:8">
@@ -3434,7 +3434,7 @@
         <v>804.3831308900005</v>
       </c>
       <c r="H117">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:8">
@@ -3460,7 +3460,7 @@
         <v>804.3831308900005</v>
       </c>
       <c r="H118">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:8">
@@ -3486,7 +3486,7 @@
         <v>795.2903308900005</v>
       </c>
       <c r="H119">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:8">
@@ -3512,7 +3512,7 @@
         <v>795.2903308900005</v>
       </c>
       <c r="H120">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:8">
@@ -3538,7 +3538,7 @@
         <v>819.5084308900006</v>
       </c>
       <c r="H121">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>891.4883308900006</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>904.4883308900006</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3616,7 +3616,7 @@
         <v>923.4883308900006</v>
       </c>
       <c r="H124">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:8">
@@ -3642,7 +3642,7 @@
         <v>923.4883308900006</v>
       </c>
       <c r="H125">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:8">
@@ -3668,7 +3668,7 @@
         <v>884.2559801600006</v>
       </c>
       <c r="H126">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:8">
@@ -3694,7 +3694,7 @@
         <v>930.4346801600007</v>
       </c>
       <c r="H127">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:8">
@@ -3720,7 +3720,7 @@
         <v>918.0195801600006</v>
       </c>
       <c r="H128">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:8">
@@ -3746,7 +3746,7 @@
         <v>900.0844801600006</v>
       </c>
       <c r="H129">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:8">
@@ -3772,7 +3772,7 @@
         <v>901.7744801600006</v>
       </c>
       <c r="H130">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:8">
@@ -3798,7 +3798,7 @@
         <v>913.6229801600006</v>
       </c>
       <c r="H131">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:8">
@@ -3824,7 +3824,7 @@
         <v>901.1250801600006</v>
       </c>
       <c r="H132">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="133" spans="1:8">
@@ -3850,7 +3850,7 @@
         <v>907.0650801600007</v>
       </c>
       <c r="H133">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="134" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>906.3334801600007</v>
       </c>
       <c r="H134">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>906.5634801600007</v>
       </c>
       <c r="H135">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>847.6029801600007</v>
       </c>
       <c r="H136">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3980,7 +3980,7 @@
         <v>835.9004801600007</v>
       </c>
       <c r="H138">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
